--- a/dados_gerais/Tabela_ingressantes.xlsx
+++ b/dados_gerais/Tabela_ingressantes.xlsx
@@ -437,20 +437,6 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4769</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9284</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14053</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
